--- a/biology/Zoologie/Cheirogaleidae/Cheirogaleidae.xlsx
+++ b/biology/Zoologie/Cheirogaleidae/Cheirogaleidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des cheirogaleidés (Cheirogaleidae) est l'une des cinq familles actuelles de primates lémuriformes.
 Cette famille est placée par certains auteurs dans le groupe des primates lorisiformes.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cheirogaleidés sont des lémuriens de petite taille, présentant une tête plus aplatie que celle des lémuridés, et dont les deux grand yeux sont rapprochés. Les femelles ont trois paires de mamelles.
 </t>
@@ -543,11 +557,48 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Les cheirogaleidés sont des animaux nocturnes et arboricoles.
-Classification
-sous-famille Cheirogaleinae :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cheirogaleidés sont des animaux nocturnes et arboricoles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cheirogaleidae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cheirogaleidae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>sous-famille Cheirogaleinae :
 genre Microcebus - les microcèbes
 Microcebus berthae - Microcèbe de Mme Berthe
 Microcebus griseorufus - Microcèbe gris-roux
